--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/SOUTH_CAROLINA_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/SOUTH_CAROLINA_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1416"/>
+  <dimension ref="A1:D1410"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C33">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C36">
@@ -875,7 +875,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C38">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C44">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C49">
@@ -1278,7 +1278,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C69">
@@ -1421,7 +1421,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C80">
@@ -1434,7 +1434,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C81">
@@ -1829,7 +1829,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C111">
@@ -1842,7 +1842,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C112">
@@ -2133,7 +2133,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C134">
@@ -2255,7 +2255,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2312,7 +2312,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C147">
@@ -2616,7 +2616,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C170">
@@ -2733,13 +2733,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estado de México_x000D_
-</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C179">
@@ -2778,7 +2777,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C182">
@@ -2791,7 +2790,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C183">
@@ -2843,7 +2842,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C187">
@@ -2908,7 +2907,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C192">
@@ -2947,7 +2946,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C195">
@@ -2999,7 +2998,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C199">
@@ -3077,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C205">
@@ -3233,7 +3232,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C217">
@@ -3363,7 +3362,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C227">
@@ -3389,7 +3388,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C229">
@@ -3415,7 +3414,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C231">
@@ -3519,7 +3518,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C239">
@@ -3636,7 +3635,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C248">
@@ -3688,7 +3687,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C252">
@@ -3701,7 +3700,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C253">
@@ -3714,7 +3713,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C254">
@@ -3849,7 +3848,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C264">
@@ -3862,7 +3861,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C265">
@@ -3875,7 +3874,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C266">
@@ -3979,7 +3978,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C274">
@@ -4031,7 +4030,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C278">
@@ -4122,7 +4121,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C285">
@@ -4174,7 +4173,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C289">
@@ -4200,7 +4199,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C291">
@@ -4226,7 +4225,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C293">
@@ -4252,7 +4251,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C295">
@@ -4265,7 +4264,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C296">
@@ -4330,7 +4329,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C301">
@@ -4413,7 +4412,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C307">
@@ -4439,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C309">
@@ -4452,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C310">
@@ -4491,7 +4490,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C313">
@@ -4517,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C315">
@@ -4530,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C316">
@@ -4569,7 +4568,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C319">
@@ -4582,7 +4581,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C320">
@@ -4595,7 +4594,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C321">
@@ -4608,7 +4607,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C322">
@@ -4673,7 +4672,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C327">
@@ -4686,7 +4685,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C328">
@@ -4738,7 +4737,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C332">
@@ -4751,7 +4750,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C333">
@@ -4816,7 +4815,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C338">
@@ -4829,7 +4828,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C339">
@@ -4855,7 +4854,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C341">
@@ -4894,7 +4893,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C344">
@@ -4933,7 +4932,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C347">
@@ -5102,7 +5101,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C360">
@@ -5128,7 +5127,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C362">
@@ -5154,7 +5153,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C364">
@@ -5180,7 +5179,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C366">
@@ -5219,7 +5218,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C369">
@@ -5380,7 +5379,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C381">
@@ -5445,7 +5444,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C386">
@@ -5523,7 +5522,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C392">
@@ -5588,7 +5587,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C397">
@@ -5627,7 +5626,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C400">
@@ -5666,7 +5665,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C403">
@@ -5744,7 +5743,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C409">
@@ -5757,7 +5756,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C410">
@@ -5770,7 +5769,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C411">
@@ -5783,7 +5782,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C412">
@@ -5809,7 +5808,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C414">
@@ -5822,7 +5821,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C415">
@@ -5835,7 +5834,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C416">
@@ -5874,7 +5873,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C419">
@@ -5939,7 +5938,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C424">
@@ -5952,7 +5951,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C425">
@@ -6004,7 +6003,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C429">
@@ -6030,7 +6029,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C431">
@@ -6043,7 +6042,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C432">
@@ -6082,7 +6081,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C435">
@@ -6173,7 +6172,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C442">
@@ -6186,7 +6185,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C443">
@@ -6238,7 +6237,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C447">
@@ -6251,7 +6250,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C448">
@@ -6297,7 +6296,7 @@
         <v>1121</v>
       </c>
       <c r="D451">
-        <v>0.09282106483398195</v>
+        <v>0.09282106483398196</v>
       </c>
     </row>
     <row r="452">
@@ -6321,7 +6320,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C453">
@@ -6334,7 +6333,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C454">
@@ -6399,7 +6398,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C459">
@@ -6412,7 +6411,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C460">
@@ -6425,7 +6424,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C461">
@@ -6542,7 +6541,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C470">
@@ -6594,7 +6593,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C474">
@@ -6607,7 +6606,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C475">
@@ -6633,7 +6632,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C477">
@@ -6659,7 +6658,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C479">
@@ -6685,7 +6684,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C481">
@@ -6750,7 +6749,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C486">
@@ -6776,7 +6775,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C488">
@@ -6802,7 +6801,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C490">
@@ -6841,7 +6840,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C493">
@@ -6854,7 +6853,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C494">
@@ -6906,7 +6905,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C498">
@@ -6932,7 +6931,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C500">
@@ -6945,7 +6944,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C501">
@@ -7049,7 +7048,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C509">
@@ -7088,7 +7087,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C512">
@@ -7127,7 +7126,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C515">
@@ -7366,7 +7365,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C533">
@@ -8055,7 +8054,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C586">
@@ -8294,7 +8293,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C604">
@@ -8450,7 +8449,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C616">
@@ -8515,7 +8514,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C621">
@@ -8541,7 +8540,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C623">
@@ -8650,7 +8649,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C631">
@@ -8741,7 +8740,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C638">
@@ -8915,7 +8914,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C651">
@@ -8941,7 +8940,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C653">
@@ -8998,7 +8997,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C657">
@@ -9063,7 +9062,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C662">
@@ -9115,7 +9114,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C666">
@@ -9128,7 +9127,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C667">
@@ -9154,7 +9153,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C669">
@@ -9167,7 +9166,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C670">
@@ -9206,7 +9205,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C673">
@@ -9219,7 +9218,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C674">
@@ -9232,7 +9231,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C675">
@@ -9245,7 +9244,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C676">
@@ -9258,7 +9257,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C677">
@@ -9284,7 +9283,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C679">
@@ -9297,7 +9296,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C680">
@@ -9427,7 +9426,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C690">
@@ -9453,7 +9452,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C692">
@@ -9479,7 +9478,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C694">
@@ -9492,7 +9491,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C695">
@@ -9518,7 +9517,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C697">
@@ -9544,7 +9543,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C699">
@@ -9557,7 +9556,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C700">
@@ -9583,7 +9582,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C702">
@@ -9596,7 +9595,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C703">
@@ -9609,7 +9608,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C704">
@@ -9921,7 +9920,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C728">
@@ -9960,7 +9959,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C731">
@@ -10181,7 +10180,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C748">
@@ -10259,7 +10258,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C754">
@@ -10350,7 +10349,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C761">
@@ -10948,7 +10947,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C807">
@@ -11078,7 +11077,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C817">
@@ -11117,7 +11116,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C820">
@@ -11286,7 +11285,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C833">
@@ -11442,7 +11441,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C845">
@@ -11520,7 +11519,7 @@
     <row r="851">
       <c r="B851" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C851">
@@ -11572,7 +11571,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C855">
@@ -11715,7 +11714,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C866">
@@ -12053,7 +12052,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C892">
@@ -12313,7 +12312,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C912">
@@ -12469,7 +12468,7 @@
     <row r="924">
       <c r="B924" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C924">
@@ -12482,7 +12481,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C925">
@@ -12495,7 +12494,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C926">
@@ -12508,7 +12507,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C927">
@@ -12547,7 +12546,7 @@
     <row r="930">
       <c r="B930" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C930">
@@ -12573,7 +12572,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C932">
@@ -12586,7 +12585,7 @@
     <row r="933">
       <c r="B933" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C933">
@@ -12599,7 +12598,7 @@
     <row r="934">
       <c r="B934" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C934">
@@ -12625,7 +12624,7 @@
     <row r="936">
       <c r="B936" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C936">
@@ -12677,7 +12676,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C940">
@@ -12890,7 +12889,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C956">
@@ -13111,7 +13110,7 @@
     <row r="973">
       <c r="B973" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C973">
@@ -13124,7 +13123,7 @@
     <row r="974">
       <c r="B974" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C974">
@@ -13319,7 +13318,7 @@
     <row r="989">
       <c r="B989" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C989">
@@ -13358,7 +13357,7 @@
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C992">
@@ -13436,7 +13435,7 @@
     <row r="998">
       <c r="B998" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C998">
@@ -13527,7 +13526,7 @@
     <row r="1005">
       <c r="B1005" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1005">
@@ -13683,7 +13682,7 @@
     <row r="1017">
       <c r="B1017" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1017">
@@ -13709,7 +13708,7 @@
     <row r="1019">
       <c r="B1019" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1019">
@@ -13722,7 +13721,7 @@
     <row r="1020">
       <c r="B1020" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1020">
@@ -13748,7 +13747,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1022">
@@ -13878,7 +13877,7 @@
     <row r="1032">
       <c r="B1032" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1032">
@@ -13904,7 +13903,7 @@
     <row r="1034">
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1034">
@@ -13956,7 +13955,7 @@
     <row r="1038">
       <c r="B1038" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1038">
@@ -14138,7 +14137,7 @@
     <row r="1052">
       <c r="B1052" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1052">
@@ -14260,7 +14259,7 @@
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1061">
@@ -14286,7 +14285,7 @@
     <row r="1063">
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1063">
@@ -14351,7 +14350,7 @@
     <row r="1068">
       <c r="B1068" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1068">
@@ -14364,7 +14363,7 @@
     <row r="1069">
       <c r="B1069" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1069">
@@ -14403,7 +14402,7 @@
     <row r="1072">
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1072">
@@ -14442,7 +14441,7 @@
     <row r="1075">
       <c r="B1075" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1075">
@@ -14582,7 +14581,7 @@
     <row r="1085">
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1085">
@@ -14647,7 +14646,7 @@
     <row r="1090">
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1090">
@@ -14777,7 +14776,7 @@
     <row r="1100">
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1100">
@@ -14842,7 +14841,7 @@
     <row r="1105">
       <c r="B1105" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1105">
@@ -14907,7 +14906,7 @@
     <row r="1110">
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1110">
@@ -14998,7 +14997,7 @@
     <row r="1117">
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1117">
@@ -15050,7 +15049,7 @@
     <row r="1121">
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1121">
@@ -15063,7 +15062,7 @@
     <row r="1122">
       <c r="B1122" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1122">
@@ -15076,7 +15075,7 @@
     <row r="1123">
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1123">
@@ -15437,7 +15436,7 @@
     <row r="1150">
       <c r="B1150" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1150">
@@ -15572,7 +15571,7 @@
     <row r="1160">
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1160">
@@ -16006,7 +16005,7 @@
     <row r="1193">
       <c r="B1193" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1193">
@@ -16193,7 +16192,7 @@
     <row r="1207">
       <c r="B1207" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1207">
@@ -16219,7 +16218,7 @@
     <row r="1209">
       <c r="B1209" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1209">
@@ -16245,7 +16244,7 @@
     <row r="1211">
       <c r="B1211" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1211">
@@ -16406,7 +16405,7 @@
     <row r="1223">
       <c r="B1223" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1223">
@@ -16458,7 +16457,7 @@
     <row r="1227">
       <c r="B1227" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1227">
@@ -16588,7 +16587,7 @@
     <row r="1237">
       <c r="B1237" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1237">
@@ -16614,7 +16613,7 @@
     <row r="1239">
       <c r="B1239" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1239">
@@ -16666,7 +16665,7 @@
     <row r="1243">
       <c r="B1243" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1243">
@@ -16692,7 +16691,7 @@
     <row r="1245">
       <c r="B1245" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1245">
@@ -16900,7 +16899,7 @@
     <row r="1261">
       <c r="B1261" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1261">
@@ -16913,7 +16912,7 @@
     <row r="1262">
       <c r="B1262" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1262">
@@ -17095,7 +17094,7 @@
     <row r="1276">
       <c r="B1276" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1276">
@@ -17108,7 +17107,7 @@
     <row r="1277">
       <c r="B1277" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1277">
@@ -17147,7 +17146,7 @@
     <row r="1280">
       <c r="B1280" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1280">
@@ -17160,7 +17159,7 @@
     <row r="1281">
       <c r="B1281" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1281">
@@ -17173,7 +17172,7 @@
     <row r="1282">
       <c r="B1282" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1282">
@@ -17186,7 +17185,7 @@
     <row r="1283">
       <c r="B1283" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1283">
@@ -17342,7 +17341,7 @@
     <row r="1295">
       <c r="B1295" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1295">
@@ -17394,7 +17393,7 @@
     <row r="1299">
       <c r="B1299" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1299">
@@ -17433,7 +17432,7 @@
     <row r="1302">
       <c r="B1302" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1302">
@@ -17472,7 +17471,7 @@
     <row r="1305">
       <c r="B1305" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1305">
@@ -17511,7 +17510,7 @@
     <row r="1308">
       <c r="B1308" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1308">
@@ -17615,7 +17614,7 @@
     <row r="1316">
       <c r="B1316" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1316">
@@ -17654,7 +17653,7 @@
     <row r="1319">
       <c r="B1319" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1319">
@@ -17667,7 +17666,7 @@
     <row r="1320">
       <c r="B1320" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1320">
@@ -17706,7 +17705,7 @@
     <row r="1323">
       <c r="B1323" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1323">
@@ -17810,7 +17809,7 @@
     <row r="1331">
       <c r="B1331" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1331">
@@ -17849,7 +17848,7 @@
     <row r="1334">
       <c r="B1334" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1334">
@@ -18070,7 +18069,7 @@
     <row r="1351">
       <c r="B1351" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1351">
@@ -18200,7 +18199,7 @@
     <row r="1361">
       <c r="B1361" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1361">
@@ -18343,7 +18342,7 @@
     <row r="1372">
       <c r="B1372" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1372">
@@ -18613,7 +18612,7 @@
     <row r="1392">
       <c r="B1392" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1392">
@@ -18626,7 +18625,7 @@
     <row r="1393">
       <c r="B1393" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1393">
@@ -18730,7 +18729,7 @@
     <row r="1401">
       <c r="B1401" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1401">
@@ -18743,7 +18742,7 @@
     <row r="1402">
       <c r="B1402" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1402">
@@ -18855,41 +18854,6 @@
       </c>
       <c r="D1410">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1412">
-      <c r="A1412" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="1413">
-      <c r="A1413" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1414">
-      <c r="A1414" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1415">
-      <c r="A1415" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1416">
-      <c r="A1416" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>
